--- a/main/nettoyage/etape5.xlsx
+++ b/main/nettoyage/etape5.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>Ingrédient</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mot_Associe</t>
+          <t>Aliment</t>
         </is>
       </c>
     </row>
